--- a/excell/clients.xlsx
+++ b/excell/clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="724">
   <si>
     <t>ID</t>
   </si>
@@ -37,19 +37,16 @@
     <t>Checks</t>
   </si>
   <si>
-    <t>senior_coffee_drinker</t>
-  </si>
-  <si>
-    <t>Ерек</t>
-  </si>
-  <si>
-    <t>77471850499</t>
-  </si>
-  <si>
-    <t>Алматы, шашкина 14</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:45:22.610402</t>
+    <t>Абенова Айпарша Анарбаевна</t>
+  </si>
+  <si>
+    <t>77774481725</t>
+  </si>
+  <si>
+    <t>Түркістан облысы,Отырар ауданы,Шәуілдір ауылы, Н.Оңдасынов көшесі, 14үй</t>
+  </si>
+  <si>
+    <t>2025-03-26 17:43:27.017495</t>
   </si>
   <si>
     <t>paid</t>
@@ -58,16 +55,2174 @@
     <t>true</t>
   </si>
   <si>
-    <t>Нариман</t>
-  </si>
-  <si>
-    <t>77051383709</t>
-  </si>
-  <si>
-    <t>Абая 50</t>
-  </si>
-  <si>
-    <t>2025-03-24 22:50:38.327260</t>
+    <t>Рахимбаева Гульмира Ниязовна</t>
+  </si>
+  <si>
+    <t>77027308685</t>
+  </si>
+  <si>
+    <t>Алматы, Жетысу-2, 85үй, 109патер</t>
+  </si>
+  <si>
+    <t>2025-03-26 20:34:46.607791</t>
+  </si>
+  <si>
+    <t>Akmanet1</t>
+  </si>
+  <si>
+    <t>Муханбаева Акманет</t>
+  </si>
+  <si>
+    <t>77011332300</t>
+  </si>
+  <si>
+    <t>Атырау Нурсая 81үй 27кв</t>
+  </si>
+  <si>
+    <t>2025-03-27 13:53:55.109300</t>
+  </si>
+  <si>
+    <t>Умбеталиева Айгул</t>
+  </si>
+  <si>
+    <t>77052274950</t>
+  </si>
+  <si>
+    <t>Мангышлак 44-жатахана 5-кв</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:13:43.706647</t>
+  </si>
+  <si>
+    <t>Karabalaeva92</t>
+  </si>
+  <si>
+    <t>Қарабалаева Ләззат</t>
+  </si>
+  <si>
+    <t>77022053717</t>
+  </si>
+  <si>
+    <t>Маңғыстау облысы, Мұнайлы ауданы, Маңғыстау-5 учас-738</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:20:35.628026</t>
+  </si>
+  <si>
+    <t>Кувандыкова Нұрзия</t>
+  </si>
+  <si>
+    <t>77754306464</t>
+  </si>
+  <si>
+    <t>Жаңаөзен,Шұғыла ш/а.99 пәтер</t>
+  </si>
+  <si>
+    <t>2025-03-27 14:37:31.599886</t>
+  </si>
+  <si>
+    <t>Күміс</t>
+  </si>
+  <si>
+    <t>77016800489</t>
+  </si>
+  <si>
+    <t>Ақтау қаласы 26-31-89</t>
+  </si>
+  <si>
+    <t>2025-03-27 15:09:50.378893</t>
+  </si>
+  <si>
+    <t>Irinadsrwe</t>
+  </si>
+  <si>
+    <t>Тілеужан Исатай</t>
+  </si>
+  <si>
+    <t>77017047000</t>
+  </si>
+  <si>
+    <t>Алматы</t>
+  </si>
+  <si>
+    <t>2025-03-27 15:55:46.485612</t>
+  </si>
+  <si>
+    <t>/go</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:03:40.427714</t>
+  </si>
+  <si>
+    <t>Айнур Мажитова</t>
+  </si>
+  <si>
+    <t>77760175977</t>
+  </si>
+  <si>
+    <t>Атырау 
+Абулхайырхана65
+Кв89</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:16:28.611534</t>
+  </si>
+  <si>
+    <t>Бердыхан Гулсайра</t>
+  </si>
+  <si>
+    <t>77710000144</t>
+  </si>
+  <si>
+    <t>Аккент 57 /16</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:38:20.413510</t>
+  </si>
+  <si>
+    <t>Алматы каласы Аккент 57/16</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:45:18.196441</t>
+  </si>
+  <si>
+    <t>Abuov Nariman</t>
+  </si>
+  <si>
+    <t>79178264083</t>
+  </si>
+  <si>
+    <t>Санаторий 1</t>
+  </si>
+  <si>
+    <t>2025-03-27 16:51:32.573970</t>
+  </si>
+  <si>
+    <t>Тыржанова Гулбану</t>
+  </si>
+  <si>
+    <t>77022496565</t>
+  </si>
+  <si>
+    <t>Актау , Қызыл тобе 2 , участок 2020/2</t>
+  </si>
+  <si>
+    <t>2025-03-27 17:24:17.833228</t>
+  </si>
+  <si>
+    <t>Жексенов Әлібек</t>
+  </si>
+  <si>
+    <t>77027501068</t>
+  </si>
+  <si>
+    <t>Атырау қаласы, Күйші Байжұма өткелі , 2</t>
+  </si>
+  <si>
+    <t>2025-03-27 18:59:58.413670</t>
+  </si>
+  <si>
+    <t>Dulat78</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t>77474541080</t>
+  </si>
+  <si>
+    <t>Алматы қаласы, Гоголь көшесі, 47 үй, 7 пәтер</t>
+  </si>
+  <si>
+    <t>2025-03-27 20:30:10.669348</t>
+  </si>
+  <si>
+    <t>Кара 
+Ертанов Ерсұлтан</t>
+  </si>
+  <si>
+    <t>77479692050</t>
+  </si>
+  <si>
+    <t>Алматы ,Ади Шарипова 106,кафе,палау нан</t>
+  </si>
+  <si>
+    <t>2025-03-27 21:20:37.507027</t>
+  </si>
+  <si>
+    <t>Уалихан Ақерке</t>
+  </si>
+  <si>
+    <t>77058906721</t>
+  </si>
+  <si>
+    <t>Алматы,Карасайский район,Асыл арман 11дом, подьезд 1, 65кв</t>
+  </si>
+  <si>
+    <t>2025-03-28 18:04:42.223787</t>
+  </si>
+  <si>
+    <t>Сманова Гүлжанар</t>
+  </si>
+  <si>
+    <t>77075951650</t>
+  </si>
+  <si>
+    <t>2025-03-28 18:22:49.298707</t>
+  </si>
+  <si>
+    <t>AUmit_06</t>
+  </si>
+  <si>
+    <t>Аскар Умит</t>
+  </si>
+  <si>
+    <t>77774753378</t>
+  </si>
+  <si>
+    <t>Астана, Байтурсынова 29а, 35 кв</t>
+  </si>
+  <si>
+    <t>2025-04-01 14:46:46.765351</t>
+  </si>
+  <si>
+    <t>Айдар Балабеков</t>
+  </si>
+  <si>
+    <t>77017103219</t>
+  </si>
+  <si>
+    <t>Навои 280</t>
+  </si>
+  <si>
+    <t>2025-04-01 15:19:17.004943</t>
+  </si>
+  <si>
+    <t>Мерей</t>
+  </si>
+  <si>
+    <t>77476396120</t>
+  </si>
+  <si>
+    <t>Алматы Зерделі 179/1 17</t>
+  </si>
+  <si>
+    <t>2025-04-04 10:21:24.125174</t>
+  </si>
+  <si>
+    <t>Курмашев Ертуған</t>
+  </si>
+  <si>
+    <t>77087558829</t>
+  </si>
+  <si>
+    <t>Шугула 340/3 к8</t>
+  </si>
+  <si>
+    <t>2025-04-04 19:09:22.723717</t>
+  </si>
+  <si>
+    <t>Майра</t>
+  </si>
+  <si>
+    <t>77017705589</t>
+  </si>
+  <si>
+    <t>Актау каласы 31б-5-50</t>
+  </si>
+  <si>
+    <t>2025-04-05 18:12:51.098539</t>
+  </si>
+  <si>
+    <t>Темірлан Тілеуқұл</t>
+  </si>
+  <si>
+    <t>77084931217</t>
+  </si>
+  <si>
+    <t>Алматы, 20-шағын аудан, 46-үй, 9-пәтер</t>
+  </si>
+  <si>
+    <t>2025-04-06 16:34:46.899827</t>
+  </si>
+  <si>
+    <t>Razrabon4ik</t>
+  </si>
+  <si>
+    <t>Еркін Нұрмұқан</t>
+  </si>
+  <si>
+    <t>77013333788</t>
+  </si>
+  <si>
+    <t>Алматы облысы қарасай ауданы қырғауылды ауылы наурыз көшесі 53-үй</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:26:30.378273</t>
+  </si>
+  <si>
+    <t>Еркін Нұрмуқан</t>
+  </si>
+  <si>
+    <t>Алматы облысы Қарасай ауданы қырғауылды ауылы наурыз көшесі 53-үй</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:30:26.672646</t>
+  </si>
+  <si>
+    <t>Бақыт Тушаев</t>
+  </si>
+  <si>
+    <t>77025611616</t>
+  </si>
+  <si>
+    <t>Тұздыбастау Сағадат Нұрмағанбетова 17</t>
+  </si>
+  <si>
+    <t>2025-04-06 17:44:01.949147</t>
+  </si>
+  <si>
+    <t>Айжан Хусанова Темиркановна</t>
+  </si>
+  <si>
+    <t>77757156420</t>
+  </si>
+  <si>
+    <t>Алматы обл
+Карасай ауданы
+Пос. Коксай
+Ул Наурызбай 104</t>
+  </si>
+  <si>
+    <t>2025-04-10 10:35:02.133863</t>
+  </si>
+  <si>
+    <t>Бота</t>
+  </si>
+  <si>
+    <t>2025-04-10 17:09:58.869669</t>
+  </si>
+  <si>
+    <t>Allgames3112</t>
+  </si>
+  <si>
+    <t>Исатай Гүлмира Асқарқызы</t>
+  </si>
+  <si>
+    <t>77056362377</t>
+  </si>
+  <si>
+    <t>Түркістан қаласы, 39 үй, 13 квартира</t>
+  </si>
+  <si>
+    <t>2025-04-11 05:53:47.352863</t>
+  </si>
+  <si>
+    <t>Жанар Дарханова</t>
+  </si>
+  <si>
+    <t>77779194910</t>
+  </si>
+  <si>
+    <t>Алматы 
+Көксай квартыл 45
+Уй номері 20</t>
+  </si>
+  <si>
+    <t>2025-04-11 11:35:56.798963</t>
+  </si>
+  <si>
+    <t>Бегасилов Курманбек</t>
+  </si>
+  <si>
+    <t>77051501783</t>
+  </si>
+  <si>
+    <t>Алматы қаласы Бөкейханов 484</t>
+  </si>
+  <si>
+    <t>2025-04-11 13:27:15.544372</t>
+  </si>
+  <si>
+    <t>9 күні төледім</t>
+  </si>
+  <si>
+    <t>77026287765</t>
+  </si>
+  <si>
+    <t>Шымкент қаласы, Азат мкр, Ақбастау 290</t>
+  </si>
+  <si>
+    <t>2025-04-12 14:01:33.875082</t>
+  </si>
+  <si>
+    <t>Динара Әділбек</t>
+  </si>
+  <si>
+    <t>77786106341</t>
+  </si>
+  <si>
+    <t>Қызылорда облысы Шиелі ауданы  Ибрагим Шоқаев көшесі 6үй</t>
+  </si>
+  <si>
+    <t>2025-04-12 17:33:50.143603</t>
+  </si>
+  <si>
+    <t>Дуйсембаев Данияр</t>
+  </si>
+  <si>
+    <t>77012340809</t>
+  </si>
+  <si>
+    <t>Қарағанды қаласы 
+Шолпан Жандарбекова 117 үй</t>
+  </si>
+  <si>
+    <t>2025-04-12 20:13:38.153438</t>
+  </si>
+  <si>
+    <t>Батырлан</t>
+  </si>
+  <si>
+    <t>77479006125</t>
+  </si>
+  <si>
+    <t>Жаркент қаласы Үлкен шыған ауылы Музапарова 18</t>
+  </si>
+  <si>
+    <t>2025-04-13 05:28:53.184788</t>
+  </si>
+  <si>
+    <t>ayvnvv</t>
+  </si>
+  <si>
+    <t>Ертанова Аяеа</t>
+  </si>
+  <si>
+    <t>+77472623204</t>
+  </si>
+  <si>
+    <t>Жетису 2, 85</t>
+  </si>
+  <si>
+    <t>2025-04-13 05:29:41.694838</t>
+  </si>
+  <si>
+    <t>Zulaykho</t>
+  </si>
+  <si>
+    <t>77073881483</t>
+  </si>
+  <si>
+    <t>Микрорайон Астана15</t>
+  </si>
+  <si>
+    <t>2025-04-13 06:24:53.018253</t>
+  </si>
+  <si>
+    <t>Токаев Ерден</t>
+  </si>
+  <si>
+    <t>77078234146</t>
+  </si>
+  <si>
+    <t>Алматы Бесагаш</t>
+  </si>
+  <si>
+    <t>2025-04-13 10:16:50.118092</t>
+  </si>
+  <si>
+    <t>Адилбек Утемуратов</t>
+  </si>
+  <si>
+    <t>77079777052</t>
+  </si>
+  <si>
+    <t>Алматы с.Каргалы Бекетайулы 100</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:18:12.990625</t>
+  </si>
+  <si>
+    <t>Жумагулов Жандос</t>
+  </si>
+  <si>
+    <t>77012765000</t>
+  </si>
+  <si>
+    <t>Алматы облысы Карасай ауданы Жанатурмыс ауылы Аманжолова 11</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:28:41.042104</t>
+  </si>
+  <si>
+    <t>Наржигитов Марат</t>
+  </si>
+  <si>
+    <t>77471706070</t>
+  </si>
+  <si>
+    <t>Хабибулина 7</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:54:09.120673</t>
+  </si>
+  <si>
+    <t>Роман Майғазиев</t>
+  </si>
+  <si>
+    <t>77013300030</t>
+  </si>
+  <si>
+    <t>Село Жамбыл, май 25</t>
+  </si>
+  <si>
+    <t>2025-04-13 11:56:47.754113</t>
+  </si>
+  <si>
+    <t>tamshygj</t>
+  </si>
+  <si>
+    <t>Гани Жаксылыков</t>
+  </si>
+  <si>
+    <t>77764591991</t>
+  </si>
+  <si>
+    <t>Алматы, 1-лисянского, 3 үй, 8 пәтер.</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:04:42.805531</t>
+  </si>
+  <si>
+    <t>Байсова Ақнұр</t>
+  </si>
+  <si>
+    <t>77478521269</t>
+  </si>
+  <si>
+    <t>Ұлытау облысы Жаңаарқа ауданы Игиликов 4</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:16:26.311343</t>
+  </si>
+  <si>
+    <t>Айтбаева Гулкен</t>
+  </si>
+  <si>
+    <t>77077725397</t>
+  </si>
+  <si>
+    <t>Алматы облысы Карасай ауданы Береке ауылы
+Тамабаев 9</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:30:00.788638</t>
+  </si>
+  <si>
+    <t>Marakuss09</t>
+  </si>
+  <si>
+    <t>Кусаинова Маржан</t>
+  </si>
+  <si>
+    <t>77057389081</t>
+  </si>
+  <si>
+    <t>Акмолинская область, Бурабайский район село Урумкай ул.Озерная 7</t>
+  </si>
+  <si>
+    <t>2025-04-13 12:43:44.740691</t>
+  </si>
+  <si>
+    <t>Мади Мадияров</t>
+  </si>
+  <si>
+    <t>77071777297</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:13:15.429106</t>
+  </si>
+  <si>
+    <t>🧧 Ұтыс билеттерім</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:13:17.973551</t>
+  </si>
+  <si>
+    <t>Алматы облысы карасай ауданы жанатурмыс ауылы аманжолова 11</t>
+  </si>
+  <si>
+    <t>2025-04-13 13:26:46.097434</t>
+  </si>
+  <si>
+    <t>ardana_z</t>
+  </si>
+  <si>
+    <t>Капанов Жомарт</t>
+  </si>
+  <si>
+    <t>77012240972</t>
+  </si>
+  <si>
+    <t>Алматы, Аспандиярова 196</t>
+  </si>
+  <si>
+    <t>2025-04-13 14:53:37.525808</t>
+  </si>
+  <si>
+    <t>baglan_abdraimov_official</t>
+  </si>
+  <si>
+    <t>Бағлан Абрайм</t>
+  </si>
+  <si>
+    <t>77010808083</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:05:48.583143</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:05:50.852808</t>
+  </si>
+  <si>
+    <t>alishnur00</t>
+  </si>
+  <si>
+    <t>Нұрсабыр Әлішер</t>
+  </si>
+  <si>
+    <t>77066166606</t>
+  </si>
+  <si>
+    <t>Алматы қаласы</t>
+  </si>
+  <si>
+    <t>2025-04-13 15:09:46.494294</t>
+  </si>
+  <si>
+    <t>Nurbek010102</t>
+  </si>
+  <si>
+    <t>Нурбек</t>
+  </si>
+  <si>
+    <t>77005892001</t>
+  </si>
+  <si>
+    <t>Түркістан облысы, Кентау қаласы, Әл-Фараби 102дом, 22 пәтер, 160400 почт индекс</t>
+  </si>
+  <si>
+    <t>2025-04-13 19:56:05.359111</t>
+  </si>
+  <si>
+    <t>Раушанбеков Нурдаулет 
+87072072206</t>
+  </si>
+  <si>
+    <t>77072072206</t>
+  </si>
+  <si>
+    <t>Алматы қаласы, Микрорайон Шугыла, 340/35 к5, 33 пәтер</t>
+  </si>
+  <si>
+    <t>2025-04-13 19:59:17.650152</t>
+  </si>
+  <si>
+    <t>Ускинбаев Асылбек</t>
+  </si>
+  <si>
+    <t>77074909061</t>
+  </si>
+  <si>
+    <t>/card</t>
+  </si>
+  <si>
+    <t>2025-04-14 06:11:53.433682</t>
+  </si>
+  <si>
+    <t>Баяш Анар мейрманкызы 
+Шанырак 1 
+Маркакол 80</t>
+  </si>
+  <si>
+    <t>77083595477</t>
+  </si>
+  <si>
+    <t>Алматы каласы 
+Шанырак 1 
+Маркакол 80</t>
+  </si>
+  <si>
+    <t>2025-04-14 10:50:32.923362</t>
+  </si>
+  <si>
+    <t>Абдибаев Жумахан</t>
+  </si>
+  <si>
+    <t>77753604467</t>
+  </si>
+  <si>
+    <t>Жк Примера</t>
+  </si>
+  <si>
+    <t>2025-04-14 11:01:11.252242</t>
+  </si>
+  <si>
+    <t>Улан Анаркулулы</t>
+  </si>
+  <si>
+    <t>77479008141</t>
+  </si>
+  <si>
+    <t>Көксай наурызбай 94б</t>
+  </si>
+  <si>
+    <t>2025-04-14 11:22:42.913698</t>
+  </si>
+  <si>
+    <t>2025-04-14 11:22:45.917100</t>
+  </si>
+  <si>
+    <t>Талғат Ахметов</t>
+  </si>
+  <si>
+    <t>77018868777</t>
+  </si>
+  <si>
+    <t>Алматы қаласы Қалқаман 2 Арғынбаева 3</t>
+  </si>
+  <si>
+    <t>2025-04-14 13:12:12.218223</t>
+  </si>
+  <si>
+    <t>Аманкелді Исатаев</t>
+  </si>
+  <si>
+    <t>77072002776</t>
+  </si>
+  <si>
+    <t>Алматы, Жандосова 184/1, кв 52</t>
+  </si>
+  <si>
+    <t>2025-04-14 16:07:31.177752</t>
+  </si>
+  <si>
+    <t>Куаныш Курметхан</t>
+  </si>
+  <si>
+    <t>77014447450</t>
+  </si>
+  <si>
+    <t>Павлодар обл Ақсу ауданы</t>
+  </si>
+  <si>
+    <t>2025-04-14 16:10:06.363899</t>
+  </si>
+  <si>
+    <t>Отарбаева Айнұр</t>
+  </si>
+  <si>
+    <t>77770059827</t>
+  </si>
+  <si>
+    <t>Алматы қаласы, Көктерек 139, корпус 13, кв 99</t>
+  </si>
+  <si>
+    <t>2025-04-14 16:28:09.820438</t>
+  </si>
+  <si>
+    <t>Рыскан Санат</t>
+  </si>
+  <si>
+    <t>77474313150</t>
+  </si>
+  <si>
+    <t>Алматы,Аккент,32</t>
+  </si>
+  <si>
+    <t>2025-04-14 18:36:04.047851</t>
+  </si>
+  <si>
+    <t>Askarov_ansar_7</t>
+  </si>
+  <si>
+    <t>Қулжабаев Нұрсаят</t>
+  </si>
+  <si>
+    <t>77479978140</t>
+  </si>
+  <si>
+    <t>Ақжарма 27</t>
+  </si>
+  <si>
+    <t>2025-04-14 20:34:24.806165</t>
+  </si>
+  <si>
+    <t>Karlygash78</t>
+  </si>
+  <si>
+    <t>Қарлығаш Қалыбекова</t>
+  </si>
+  <si>
+    <t>77016064455</t>
+  </si>
+  <si>
+    <t>Алматы , ул Аносова 28/24</t>
+  </si>
+  <si>
+    <t>2025-04-15 11:51:52.717433</t>
+  </si>
+  <si>
+    <t>Amazon_nik</t>
+  </si>
+  <si>
+    <t>Молдрахим Нурсултан</t>
+  </si>
+  <si>
+    <t>77076718087</t>
+  </si>
+  <si>
+    <t>Алматы каласы ратушного37</t>
+  </si>
+  <si>
+    <t>2025-04-15 12:22:21.822577</t>
+  </si>
+  <si>
+    <t>Нұржігіт</t>
+  </si>
+  <si>
+    <t>77759294655</t>
+  </si>
+  <si>
+    <t>Түркістан обл келес ауданы абай ауылы 
+Тұмашев Т 13</t>
+  </si>
+  <si>
+    <t>2025-04-15 13:45:25.682514</t>
+  </si>
+  <si>
+    <t>Қарақат</t>
+  </si>
+  <si>
+    <t>77472282270</t>
+  </si>
+  <si>
+    <t>Аксенгір карасай ауданы нур пылаза 61</t>
+  </si>
+  <si>
+    <t>2025-04-15 15:43:10.462472</t>
+  </si>
+  <si>
+    <t>Мұқажанова Гүлім</t>
+  </si>
+  <si>
+    <t>77078127939</t>
+  </si>
+  <si>
+    <t>Абай облысы Мақаншы ауданы Қарабұлақ ауылы Баекенов 30</t>
+  </si>
+  <si>
+    <t>2025-04-16 08:33:24.247561</t>
+  </si>
+  <si>
+    <t>Құдайберген</t>
+  </si>
+  <si>
+    <t>77021885252</t>
+  </si>
+  <si>
+    <t>Көкмайса 25</t>
+  </si>
+  <si>
+    <t>2025-04-16 15:53:06.376717</t>
+  </si>
+  <si>
+    <t>Akudai11</t>
+  </si>
+  <si>
+    <t>Ізбасқан Рауан</t>
+  </si>
+  <si>
+    <t>77752028911</t>
+  </si>
+  <si>
+    <t>1 микр 40</t>
+  </si>
+  <si>
+    <t>2025-04-16 16:45:39.233872</t>
+  </si>
+  <si>
+    <t>Jaks068</t>
+  </si>
+  <si>
+    <t>Кабдолинова Жанар</t>
+  </si>
+  <si>
+    <t>77754714151</t>
+  </si>
+  <si>
+    <t>Г.Алматы Ауэзовкий р-н,мкр.Мамыр-4 д.102"А"</t>
+  </si>
+  <si>
+    <t>2025-04-17 08:51:38.563997</t>
+  </si>
+  <si>
+    <t>Botagoz_Bekmurzaevna</t>
+  </si>
+  <si>
+    <t>Ботагоз</t>
+  </si>
+  <si>
+    <t>77477895824</t>
+  </si>
+  <si>
+    <t>Алмты қаласы Жандосова 184 в блок 1 кв 34</t>
+  </si>
+  <si>
+    <t>2025-04-17 10:34:01.425324</t>
+  </si>
+  <si>
+    <t>Ергалиев Куаныш</t>
+  </si>
+  <si>
+    <t>77078516993</t>
+  </si>
+  <si>
+    <t>2025-04-17 10:53:25.253616</t>
+  </si>
+  <si>
+    <t>Досинбаев Акжол</t>
+  </si>
+  <si>
+    <t>77762206060</t>
+  </si>
+  <si>
+    <t>2025-04-17 10:59:20.541910</t>
+  </si>
+  <si>
+    <t>Orinbasar02</t>
+  </si>
+  <si>
+    <t>Еркинов Орынбасар</t>
+  </si>
+  <si>
+    <t>77081040766</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:03:17.142298</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:03:19.525811</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>77479126935</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:07:36.528415</t>
+  </si>
+  <si>
+    <t>aidos_erlik</t>
+  </si>
+  <si>
+    <t>Айдос Нурманалиев</t>
+  </si>
+  <si>
+    <t>77713577177</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:09:13.558088</t>
+  </si>
+  <si>
+    <t>Өмірәлі Нұржас</t>
+  </si>
+  <si>
+    <t>77785965507</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:25:40.775980</t>
+  </si>
+  <si>
+    <t>Сарсенбаева Нургуль</t>
+  </si>
+  <si>
+    <t>77057240876</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:34:17.138185</t>
+  </si>
+  <si>
+    <t>Мұрат Исақ Сейітжапбарұлы</t>
+  </si>
+  <si>
+    <t>77014406787</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:54:00.361886</t>
+  </si>
+  <si>
+    <t>Жанар Жақсылық</t>
+  </si>
+  <si>
+    <t>2025-04-17 11:58:35.742164</t>
+  </si>
+  <si>
+    <t>Жеткербай Кертанаев</t>
+  </si>
+  <si>
+    <t>77022555216</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:05:24.932104</t>
+  </si>
+  <si>
+    <t>Мусаева Балжан</t>
+  </si>
+  <si>
+    <t>77759222925</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:08:49.300081</t>
+  </si>
+  <si>
+    <t>Исакова Лаззат</t>
+  </si>
+  <si>
+    <t>77024909596</t>
+  </si>
+  <si>
+    <t>Алматы Тастақ</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:16:55.434142</t>
+  </si>
+  <si>
+    <t>Абдухалыкова Салтанат</t>
+  </si>
+  <si>
+    <t>77774000189</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:18:24.177193</t>
+  </si>
+  <si>
+    <t>Сыргабаева Гульнар Мустафаевна</t>
+  </si>
+  <si>
+    <t>77089716307</t>
+  </si>
+  <si>
+    <t>Алматы обл енбекшиказаа ауданы Ащысай ауылы ,Токаш Бокина ,46  . Тел 87079066108</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:55:22.192047</t>
+  </si>
+  <si>
+    <t>Лаззат Абилова</t>
+  </si>
+  <si>
+    <t>77788613184</t>
+  </si>
+  <si>
+    <t>2025-04-17 12:59:08.549298</t>
+  </si>
+  <si>
+    <t>Сыргабаева Гульнар мустафаевна</t>
+  </si>
+  <si>
+    <t>Алматы обл енбекшиказахский р-он село Ащысай ул .Токаш Бокина 46</t>
+  </si>
+  <si>
+    <t>2025-04-17 13:03:28.395256</t>
+  </si>
+  <si>
+    <t>Алматы обл енбекшиказахский р-он село Ащысай ул Токаш Бокина 46тел 7079066108</t>
+  </si>
+  <si>
+    <t>2025-04-17 13:22:08.261435</t>
+  </si>
+  <si>
+    <t>Айтбаева Сарбиназ</t>
+  </si>
+  <si>
+    <t>77712752292</t>
+  </si>
+  <si>
+    <t>2025-04-17 14:00:08.296347</t>
+  </si>
+  <si>
+    <t>Аскар Айтмухамбетов</t>
+  </si>
+  <si>
+    <t>77021080809</t>
+  </si>
+  <si>
+    <t>Атырау. Жамбыл Жабаев 60</t>
+  </si>
+  <si>
+    <t>2025-04-17 18:11:25.237568</t>
+  </si>
+  <si>
+    <t>Сұңқар Ардақұлы</t>
+  </si>
+  <si>
+    <t>77476620736</t>
+  </si>
+  <si>
+    <t>Шанырак -1 Ертаргын 83</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:26:21.304388</t>
+  </si>
+  <si>
+    <t>Шажабаева Бақытгүл</t>
+  </si>
+  <si>
+    <t>+77079436064</t>
+  </si>
+  <si>
+    <t>Жетису 2,85</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:30:41.909885</t>
+  </si>
+  <si>
+    <t>Рахимбаев Нияз</t>
+  </si>
+  <si>
+    <t>+77472557258</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:31:59.999216</t>
+  </si>
+  <si>
+    <t>mmereyka_a</t>
+  </si>
+  <si>
+    <t>Мақсат</t>
+  </si>
+  <si>
+    <t>77474202920</t>
+  </si>
+  <si>
+    <t>Ақтау</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:35:03.418867</t>
+  </si>
+  <si>
+    <t>Бақдәулет Қожа</t>
+  </si>
+  <si>
+    <t>Арал</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:36:35.160254</t>
+  </si>
+  <si>
+    <t>Есенғали Ағилан Қанатқызы</t>
+  </si>
+  <si>
+    <t>+77006463539</t>
+  </si>
+  <si>
+    <t>Сабыра Разимова 90/1</t>
+  </si>
+  <si>
+    <t>2025-04-17 19:37:32.932533</t>
+  </si>
+  <si>
+    <t>Омарова Саламат</t>
+  </si>
+  <si>
+    <t>77076491630</t>
+  </si>
+  <si>
+    <t>2025-04-18 07:05:26.103377</t>
+  </si>
+  <si>
+    <t>Nurbek0010</t>
+  </si>
+  <si>
+    <t>Шамеров Нұрбек</t>
+  </si>
+  <si>
+    <t>77052800156</t>
+  </si>
+  <si>
+    <t>Атырау облысы Құрманғазы ауданы Жұмекен аул Болашақ 21А</t>
+  </si>
+  <si>
+    <t>2025-04-18 11:56:17.005364</t>
+  </si>
+  <si>
+    <t>Ағабек Сымбат</t>
+  </si>
+  <si>
+    <t>77478731505</t>
+  </si>
+  <si>
+    <t>Шымкент 
+Ақжайық 69/9
+подъезд2 
+Квартира 43</t>
+  </si>
+  <si>
+    <t>2025-04-18 13:27:06.246343</t>
+  </si>
+  <si>
+    <t>Арман Ибрагимов</t>
+  </si>
+  <si>
+    <t>77472660219</t>
+  </si>
+  <si>
+    <t>Алматы коксай кирпишнайа 2</t>
+  </si>
+  <si>
+    <t>2025-04-18 14:52:01.821874</t>
+  </si>
+  <si>
+    <t>Аружан Кайыпкан</t>
+  </si>
+  <si>
+    <t>77779483560</t>
+  </si>
+  <si>
+    <t>Балқаш қаласы 
+Бокейханова 128/2</t>
+  </si>
+  <si>
+    <t>2025-04-18 17:04:51.358864</t>
+  </si>
+  <si>
+    <t>Русбаева Гулшат</t>
+  </si>
+  <si>
+    <t>87752926183</t>
+  </si>
+  <si>
+    <t>2025-04-18 17:57:00.755244</t>
+  </si>
+  <si>
+    <t>Жансулу Ережепова</t>
+  </si>
+  <si>
+    <t>77024088819</t>
+  </si>
+  <si>
+    <t>2025-04-19 07:48:07.634297</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>77021690606</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:04:03.507321</t>
+  </si>
+  <si>
+    <t>Маратов Бакытжан</t>
+  </si>
+  <si>
+    <t>77052509099</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:28:49.532223</t>
+  </si>
+  <si>
+    <t>avrrrrr</t>
+  </si>
+  <si>
+    <t>Violetta</t>
+  </si>
+  <si>
+    <t>77716212199</t>
+  </si>
+  <si>
+    <t>Гагарина 310</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:33:41.155443</t>
+  </si>
+  <si>
+    <t>Назым Джабыкбаева</t>
+  </si>
+  <si>
+    <t>77477773818</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:35:19.214468</t>
+  </si>
+  <si>
+    <t>Байкадамова Айгуль</t>
+  </si>
+  <si>
+    <t>77479909099</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:36:19.280976</t>
+  </si>
+  <si>
+    <t>Станбекова Эсмира</t>
+  </si>
+  <si>
+    <t>77078740638</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:51:16.861108</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:51:20.185142</t>
+  </si>
+  <si>
+    <t>Аманбекова Аида</t>
+  </si>
+  <si>
+    <t>77784338827</t>
+  </si>
+  <si>
+    <t>2025-04-19 09:04:03.626025</t>
+  </si>
+  <si>
+    <t>bakytzhan_trener</t>
+  </si>
+  <si>
+    <t>Бақытжан Исмаилов</t>
+  </si>
+  <si>
+    <t>77789563157</t>
+  </si>
+  <si>
+    <t>Алматы қаласы. 
+мкр.Ақкент 9
+Кв 54
+Этаж 7</t>
+  </si>
+  <si>
+    <t>2025-04-19 09:07:35.558968</t>
+  </si>
+  <si>
+    <t>Ержанқызы Әйгерім</t>
+  </si>
+  <si>
+    <t>77022510291</t>
+  </si>
+  <si>
+    <t>2025-04-19 09:25:33.471581</t>
+  </si>
+  <si>
+    <t>Калел Жанар</t>
+  </si>
+  <si>
+    <t>77026623283</t>
+  </si>
+  <si>
+    <t>2025-04-19 10:57:27.069673</t>
+  </si>
+  <si>
+    <t>Карлыгаш Калыбекова</t>
+  </si>
+  <si>
+    <t>2025-04-19 15:14:21.093373</t>
+  </si>
+  <si>
+    <t>Исатаев Аманкелді Асқарұлы</t>
+  </si>
+  <si>
+    <t>Алматы Жандосова 184/1 кв 52</t>
+  </si>
+  <si>
+    <t>2025-04-19 15:52:17.175022</t>
+  </si>
+  <si>
+    <t>Ибрагимова Нургуль</t>
+  </si>
+  <si>
+    <t>77021777725</t>
+  </si>
+  <si>
+    <t>Алматы Жандосова 184/в1 кв 52</t>
+  </si>
+  <si>
+    <t>2025-04-19 15:55:27.144345</t>
+  </si>
+  <si>
+    <t>Бекзат Харисов</t>
+  </si>
+  <si>
+    <t>77784920170</t>
+  </si>
+  <si>
+    <t>Атырау</t>
+  </si>
+  <si>
+    <t>2025-04-19 16:23:47.066076</t>
+  </si>
+  <si>
+    <t>ND_OK</t>
+  </si>
+  <si>
+    <t>Несипбай Дархан Несипбаевич</t>
+  </si>
+  <si>
+    <t>77018751266</t>
+  </si>
+  <si>
+    <t>Алматы, 2я Вишневского, дом 3, квартира 16</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:06:28.749214</t>
+  </si>
+  <si>
+    <t>Несипбай Дархан Несипбаевчик</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:08:40.562265</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:08:42.650040</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:10:15.234753</t>
+  </si>
+  <si>
+    <t>Талғат Абугазин</t>
+  </si>
+  <si>
+    <t>77017193782</t>
+  </si>
+  <si>
+    <t>Алматы Наурызбай ауданы Жуалы 15, пәтер 19</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:10:49.911062</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:11:58.114602</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:15:56.346306</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:17:18.053610</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:17:20.319866</t>
+  </si>
+  <si>
+    <t>Керім Камила</t>
+  </si>
+  <si>
+    <t>Утеген батыра, 11В к.4</t>
+  </si>
+  <si>
+    <t>2025-04-19 17:41:18.193344</t>
+  </si>
+  <si>
+    <t>2025-04-19 18:01:53.128946</t>
+  </si>
+  <si>
+    <t>2025-04-19 18:01:55.252800</t>
+  </si>
+  <si>
+    <t>Aikyn_00</t>
+  </si>
+  <si>
+    <t>Жарқыннұр Айқын</t>
+  </si>
+  <si>
+    <t>77082059716</t>
+  </si>
+  <si>
+    <t>Ұзынағаш</t>
+  </si>
+  <si>
+    <t>2025-04-20 10:40:56.671414</t>
+  </si>
+  <si>
+    <t>Маулимбергенов Бахадыр</t>
+  </si>
+  <si>
+    <t>77081239414</t>
+  </si>
+  <si>
+    <t>Ұзынағаш село Қайназар Ұзынағаш көшесі 12 ұй</t>
+  </si>
+  <si>
+    <t>2025-04-20 10:58:43.663860</t>
+  </si>
+  <si>
+    <t>Гульназ</t>
+  </si>
+  <si>
+    <t>77086930884</t>
+  </si>
+  <si>
+    <t>Астана қаласы, Қайым Мухамедханова 49/1. 3 қабат 17 пәтер</t>
+  </si>
+  <si>
+    <t>2025-04-21 06:50:57.560028</t>
+  </si>
+  <si>
+    <t>Yusup JOLDASBAEV</t>
+  </si>
+  <si>
+    <t>77073345206</t>
+  </si>
+  <si>
+    <t>Алматы навой 200</t>
+  </si>
+  <si>
+    <t>2025-04-21 11:27:34.131459</t>
+  </si>
+  <si>
+    <t>Ai_gull_4</t>
+  </si>
+  <si>
+    <t>Айгуль Смагулова</t>
+  </si>
+  <si>
+    <t>77025220828</t>
+  </si>
+  <si>
+    <t>Алматы , мкр Шугыла, сабденова 2</t>
+  </si>
+  <si>
+    <t>2025-04-21 11:44:06.230659</t>
+  </si>
+  <si>
+    <t>Mir_vam_vsem</t>
+  </si>
+  <si>
+    <t>Алмат Кумашев</t>
+  </si>
+  <si>
+    <t>77057955379</t>
+  </si>
+  <si>
+    <t>2025-04-21 13:12:36.303601</t>
+  </si>
+  <si>
+    <t>Ermuhannn</t>
+  </si>
+  <si>
+    <t>Сейтжапбар Ермұхамбет</t>
+  </si>
+  <si>
+    <t>77470090021</t>
+  </si>
+  <si>
+    <t>Алиаты қаласы Тынышбаева 17</t>
+  </si>
+  <si>
+    <t>2025-04-21 14:37:49.119963</t>
+  </si>
+  <si>
+    <t>2025-04-21 15:13:13.210251</t>
+  </si>
+  <si>
+    <t>Саттар Ерзат</t>
+  </si>
+  <si>
+    <t>77757562325</t>
+  </si>
+  <si>
+    <t>2025-04-21 16:52:07.438591</t>
+  </si>
+  <si>
+    <t>2025-04-21 16:53:53.449190</t>
+  </si>
+  <si>
+    <t>Абдулла Шерхан</t>
+  </si>
+  <si>
+    <t>77757639798</t>
+  </si>
+  <si>
+    <t>2025-04-21 16:53:55.816617</t>
+  </si>
+  <si>
+    <t>Asyl99</t>
+  </si>
+  <si>
+    <t>Олжабаев Асылбек</t>
+  </si>
+  <si>
+    <t>77077013604</t>
+  </si>
+  <si>
+    <t>Алматы қаласы, Сейфуллина 434, Институт Казгипроводхоз</t>
+  </si>
+  <si>
+    <t>2025-04-22 10:17:11.337129</t>
+  </si>
+  <si>
+    <t>Қожабаева Жансая Талғатқызы</t>
+  </si>
+  <si>
+    <t>77018681671</t>
+  </si>
+  <si>
+    <t>Астана қаласы, Қосшығұлұлы 13/6,147</t>
+  </si>
+  <si>
+    <t>2025-04-22 10:36:01.911641</t>
+  </si>
+  <si>
+    <t>2025-04-22 10:37:50.428032</t>
+  </si>
+  <si>
+    <t>2025-04-22 10:37:52.833792</t>
+  </si>
+  <si>
+    <t>Жолдас Клара Уәлиханқызы</t>
+  </si>
+  <si>
+    <t>77058975010</t>
+  </si>
+  <si>
+    <t>Түркістан. Шнос . 38/48</t>
+  </si>
+  <si>
+    <t>2025-04-22 15:57:32.276372</t>
+  </si>
+  <si>
+    <t>yessentai</t>
+  </si>
+  <si>
+    <t>Амирхан Есентай</t>
+  </si>
+  <si>
+    <t>77760103000</t>
+  </si>
+  <si>
+    <t>Астана, Ахмет Байтурсынова, 17/2, 58</t>
+  </si>
+  <si>
+    <t>2025-04-22 20:28:18.874437</t>
+  </si>
+  <si>
+    <t>Скендир Женисбек</t>
+  </si>
+  <si>
+    <t>77476197968</t>
+  </si>
+  <si>
+    <t>Село Қырғауылды ул Акши 112</t>
+  </si>
+  <si>
+    <t>2025-04-23 12:44:32.585217</t>
+  </si>
+  <si>
+    <t>bakytbekmeirambekuly007</t>
+  </si>
+  <si>
+    <t>Бақытбек Мейрамбекұлы</t>
+  </si>
+  <si>
+    <t>77073001494</t>
+  </si>
+  <si>
+    <t>Пушкина 36
+512</t>
+  </si>
+  <si>
+    <t>2025-04-23 12:49:48.232164</t>
+  </si>
+  <si>
+    <t>Ережепова Гульмира</t>
+  </si>
+  <si>
+    <t>77712644629</t>
+  </si>
+  <si>
+    <t>Астана,  Байтурсынов 29а</t>
+  </si>
+  <si>
+    <t>2025-04-23 15:45:27.479891</t>
+  </si>
+  <si>
+    <t>Астана Байтурсынов 29</t>
+  </si>
+  <si>
+    <t>2025-04-23 16:03:26.945864</t>
+  </si>
+  <si>
+    <t>2025-04-23 16:03:29.475267</t>
+  </si>
+  <si>
+    <t>Aiganymaltybayeva</t>
+  </si>
+  <si>
+    <t>Алтыбай Айганым</t>
+  </si>
+  <si>
+    <t>77029030973</t>
+  </si>
+  <si>
+    <t>Алматы, Акшагыл 4</t>
+  </si>
+  <si>
+    <t>2025-04-24 09:26:48.645405</t>
+  </si>
+  <si>
+    <t>2025-04-24 09:43:45.334518</t>
+  </si>
+  <si>
+    <t>Айгерім Исмагулова</t>
+  </si>
+  <si>
+    <t>77013785627</t>
+  </si>
+  <si>
+    <t>Астана,Н.Тілендиев 40,169кв</t>
+  </si>
+  <si>
+    <t>2025-04-24 11:45:16.241235</t>
+  </si>
+  <si>
+    <t>Гулнур</t>
+  </si>
+  <si>
+    <t>77017364874</t>
+  </si>
+  <si>
+    <t>2025-04-25 07:21:30.152691</t>
+  </si>
+  <si>
+    <t>Гүлнур</t>
+  </si>
+  <si>
+    <t>2025-04-25 07:23:09.674043</t>
+  </si>
+  <si>
+    <t>ghjjkdrn</t>
+  </si>
+  <si>
+    <t>Пошанова Маржан</t>
+  </si>
+  <si>
+    <t>77074970242</t>
+  </si>
+  <si>
+    <t>2025-04-25 17:13:50.507946</t>
+  </si>
+  <si>
+    <t>Батырхан Маржан</t>
+  </si>
+  <si>
+    <t>77019052519</t>
+  </si>
+  <si>
+    <t>2025-04-26 11:17:22.121899</t>
+  </si>
+  <si>
+    <t>Нұржан Айнұр Қайімқызы</t>
+  </si>
+  <si>
+    <t>77784514277</t>
+  </si>
+  <si>
+    <t>Түркістан облысы
+Ордабасы ауданы
+Көкарал ауылы
+Желтоқсан 19</t>
+  </si>
+  <si>
+    <t>2025-04-26 11:44:59.552060</t>
+  </si>
+  <si>
+    <t>Jienbaev Nurbolat</t>
+  </si>
+  <si>
+    <t>77752672221</t>
+  </si>
+  <si>
+    <t>Karasaiski raion posyolok Jalpaksai ul Slusai82</t>
+  </si>
+  <si>
+    <t>2025-04-26 14:34:35.094677</t>
+  </si>
+  <si>
+    <t>yslnbf</t>
+  </si>
+  <si>
+    <t>Салходжай Бақытгүл Салимжанқызы</t>
+  </si>
+  <si>
+    <t>77003361020</t>
+  </si>
+  <si>
+    <t>Астана қаласы, улы дала 47</t>
+  </si>
+  <si>
+    <t>2025-04-26 16:07:44.602407</t>
+  </si>
+  <si>
+    <t>Ақтай Бекжан Астана</t>
+  </si>
+  <si>
+    <t>77079250308</t>
+  </si>
+  <si>
+    <t>Астана</t>
+  </si>
+  <si>
+    <t>2025-04-26 22:31:37.060235</t>
+  </si>
+  <si>
+    <t>ibek_rakhim</t>
+  </si>
+  <si>
+    <t>Рахим Айбек</t>
+  </si>
+  <si>
+    <t>77010354040</t>
+  </si>
+  <si>
+    <t>С.Коксай, ул.Чокпара 18</t>
+  </si>
+  <si>
+    <t>2025-04-27 13:06:31.997390</t>
+  </si>
+  <si>
+    <t>myrzabayeva1</t>
+  </si>
+  <si>
+    <t>Мырзабаева Жайна</t>
+  </si>
+  <si>
+    <t>77011241822</t>
+  </si>
+  <si>
+    <t>Сатпаева 93</t>
+  </si>
+  <si>
+    <t>2025-04-27 13:09:25.923366</t>
+  </si>
+  <si>
+    <t>Заурембекова Фариза</t>
+  </si>
+  <si>
+    <t>77787735400</t>
+  </si>
+  <si>
+    <t>Урджар ауданы,Акжар ауылы Б.Тұрлыханов 25</t>
+  </si>
+  <si>
+    <t>2025-04-28 06:34:43.247347</t>
+  </si>
+  <si>
+    <t>айнур М</t>
+  </si>
+  <si>
+    <t>Атырау
+Абулхайырхана 65
+Кв 89</t>
+  </si>
+  <si>
+    <t>2025-04-28 10:33:22.511355</t>
+  </si>
+  <si>
+    <t>Мукушева Назым</t>
+  </si>
+  <si>
+    <t>77773464491</t>
+  </si>
+  <si>
+    <t>Уржар</t>
+  </si>
+  <si>
+    <t>2025-04-28 14:11:19.584947</t>
+  </si>
+  <si>
+    <t>Амренова Дина</t>
+  </si>
+  <si>
+    <t>77770121427</t>
+  </si>
+  <si>
+    <t>2025-04-28 15:45:39.953359</t>
+  </si>
+  <si>
+    <t>2025-04-29 05:23:17.949313</t>
+  </si>
+  <si>
+    <t>Жакижанов Нуржан</t>
+  </si>
+  <si>
+    <t>77770006006</t>
+  </si>
+  <si>
+    <t>Семей</t>
+  </si>
+  <si>
+    <t>2025-04-29 14:17:38.057648</t>
+  </si>
+  <si>
+    <t>a_aiiau</t>
+  </si>
+  <si>
+    <t>Әлімжан Аяулым</t>
+  </si>
+  <si>
+    <t>77477032972</t>
+  </si>
+  <si>
+    <t>Сарыөзек Б.Момушулы 1д</t>
+  </si>
+  <si>
+    <t>2025-04-29 18:47:38.785212</t>
+  </si>
+  <si>
+    <t>Сарыөзек 
+Б.Момушулы 1д</t>
+  </si>
+  <si>
+    <t>2025-04-29 18:52:11.845687</t>
+  </si>
+  <si>
+    <t>Айгүл</t>
+  </si>
+  <si>
+    <t>77471528424</t>
+  </si>
+  <si>
+    <t>Алматы облысы
+Қарасай ауданы
+Станция Шамалган
+Дача Сокол
+Восточная 5/31а</t>
+  </si>
+  <si>
+    <t>2025-04-30 03:55:05.199117</t>
+  </si>
+  <si>
+    <t>Арынбай Темірлан</t>
+  </si>
+  <si>
+    <t>77021548171</t>
+  </si>
+  <si>
+    <t>Алматы 19</t>
+  </si>
+  <si>
+    <t>2025-04-30 13:23:32.929395</t>
+  </si>
+  <si>
+    <t>Торгаева Кунсулу</t>
+  </si>
+  <si>
+    <t>77076556701</t>
+  </si>
+  <si>
+    <t>2025-04-30 13:28:14.754532</t>
+  </si>
+  <si>
+    <t>Бақытжанұлы Бағашар</t>
+  </si>
+  <si>
+    <t>77081927624</t>
+  </si>
+  <si>
+    <t>Алматы қаласы норильская 20</t>
+  </si>
+  <si>
+    <t>2025-04-30 14:58:54.217610</t>
+  </si>
+  <si>
+    <t>Махамбетов Ернат</t>
+  </si>
+  <si>
+    <t>77076604042</t>
+  </si>
+  <si>
+    <t>2025-04-30 17:43:22.592720</t>
+  </si>
+  <si>
+    <t>Айдын Серікқазин</t>
+  </si>
+  <si>
+    <t>77023112298</t>
+  </si>
+  <si>
+    <t>2025-05-01 12:56:14.988699</t>
+  </si>
+  <si>
+    <t>Мырзабеков Батырбек</t>
+  </si>
+  <si>
+    <t>77751541471</t>
+  </si>
+  <si>
+    <t>2025-05-01 12:58:06.559798</t>
+  </si>
+  <si>
+    <t>Риза С</t>
+  </si>
+  <si>
+    <t>77078662101</t>
+  </si>
+  <si>
+    <t>Астана, Байтурсынулы 33/1</t>
+  </si>
+  <si>
+    <t>2025-05-01 16:30:13.996159</t>
+  </si>
+  <si>
+    <t>Orzbvnl</t>
+  </si>
+  <si>
+    <t>Оразбай Несібелі</t>
+  </si>
+  <si>
+    <t>77076847855</t>
+  </si>
+  <si>
+    <t>Алматы. Мкрн алмерек. Мәңгілік ел 289</t>
+  </si>
+  <si>
+    <t>2025-05-01 18:12:18.726883</t>
+  </si>
+  <si>
+    <t>Байбосынова Мадина</t>
+  </si>
+  <si>
+    <t>77751307980</t>
+  </si>
+  <si>
+    <t>2025-05-02 09:39:35.129838</t>
+  </si>
+  <si>
+    <t>Хайрутдинова Жулдыз</t>
+  </si>
+  <si>
+    <t>77072515133</t>
+  </si>
+  <si>
+    <t>2025-05-02 11:19:08.238938</t>
+  </si>
+  <si>
+    <t>Zzum7</t>
+  </si>
+  <si>
+    <t>Нурпеисова Рашида Салиховна</t>
+  </si>
+  <si>
+    <t>77026603070</t>
+  </si>
+  <si>
+    <t>Семей қаласы, М. Бейсембаев көшесі, 31 үй, 14 пәтер</t>
+  </si>
+  <si>
+    <t>2025-05-02 12:19:54.115644</t>
+  </si>
+  <si>
+    <t>Исаева Жазира Исакызы</t>
+  </si>
+  <si>
+    <t>77715178153</t>
+  </si>
+  <si>
+    <t>Туркестан каласы, Сатыбалды кошесы 20 уй</t>
+  </si>
+  <si>
+    <t>2025-05-02 16:00:52.178955</t>
+  </si>
+  <si>
+    <t>Zhas070</t>
+  </si>
+  <si>
+    <t>Бакиров Жасулан</t>
+  </si>
+  <si>
+    <t>77759746660</t>
+  </si>
+  <si>
+    <t>Астана, санжар асфендиярова 9 патер 43</t>
+  </si>
+  <si>
+    <t>2025-05-03 18:22:36.586979</t>
+  </si>
+  <si>
+    <t>Нурланұлы Ерасыл</t>
+  </si>
+  <si>
+    <t>77078702987</t>
+  </si>
+  <si>
+    <t>Талғар Есенберлина 51</t>
+  </si>
+  <si>
+    <t>2025-05-04 08:46:32.910303</t>
+  </si>
+  <si>
+    <t>anu_naz00</t>
+  </si>
+  <si>
+    <t>Назым</t>
+  </si>
+  <si>
+    <t>77006494719</t>
+  </si>
+  <si>
+    <t>алматы</t>
+  </si>
+  <si>
+    <t>2025-05-04 10:14:20.231636</t>
+  </si>
+  <si>
+    <t>Есиркепова Жанна</t>
+  </si>
+  <si>
+    <t>77073204461</t>
+  </si>
+  <si>
+    <t>Алматы каласы,
+мкр.Аккент 9
+кв.54
+этаж 7</t>
+  </si>
+  <si>
+    <t>2025-05-06 18:27:25.853481</t>
+  </si>
+  <si>
+    <t>Әділбек Динара Қожахметқызы</t>
+  </si>
+  <si>
+    <t>Қызылорда облысы Шиелі ауданы И.Шоқаев 6 үй</t>
+  </si>
+  <si>
+    <t>2025-05-07 06:18:04.164740</t>
+  </si>
+  <si>
+    <t>Дарын</t>
+  </si>
+  <si>
+    <t>77752273919</t>
+  </si>
+  <si>
+    <t>Жамбыл облысы Шу ауданы Шу қаласы. Қосқұдық  микрорайоны.  Баймухаметов көшесі 1</t>
+  </si>
+  <si>
+    <t>2025-05-07 18:05:51.261289</t>
+  </si>
+  <si>
+    <t>Жалгасбаева Бахиткуль</t>
+  </si>
+  <si>
+    <t>77023772045</t>
+  </si>
+  <si>
+    <t>Кызылорда мкр Астана 2 Байтерек 81 В</t>
+  </si>
+  <si>
+    <t>2025-05-09 14:04:00.785318</t>
   </si>
 </sst>
 </file>
@@ -399,7 +2554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,28 +2588,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>800703982</v>
-      </c>
-      <c r="C2" t="s">
+        <v>840315542</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -462,25 +2614,5359 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>534713083</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1019994867</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5393218309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>728968199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6011915750</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6856678700</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>957813212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>957813212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7426205997</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6522265911</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6522265911</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>6063547663</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B15">
+        <v>6497468593</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B16">
+        <v>770514105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B17">
+        <v>751098074</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="B18">
+        <v>1047758898</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7672403980</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5648171214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>824163516</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8084536705</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6533434217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1932614554</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>852098159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6224190698</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1290807672</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1290807672</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>510623470</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7978494965</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1932614554</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>895513396</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1640911027</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>914925715</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1053731357</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>648479884</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1670964712</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5233713307</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1754438421</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5951312368</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>8014322208</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>881039013</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1068242403</v>
+      </c>
+      <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1620753862</v>
+      </c>
+      <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>683511501</v>
+      </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>822671694</v>
+      </c>
+      <c r="C46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5893839737</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5140805072</v>
+      </c>
+      <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6026445436</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>848158693</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>848158693</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1068242403</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>418297167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>492138994</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>492138994</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5380782452</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>483778862</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5209045473</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1988602327</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6669125607</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" t="s">
+        <v>241</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>8012749358</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>948451714</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>948451714</v>
+      </c>
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" t="s">
+        <v>247</v>
+      </c>
+      <c r="F63" t="s">
+        <v>206</v>
+      </c>
+      <c r="G63" t="s">
+        <v>250</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>430768554</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64" t="s">
+        <v>254</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7659724672</v>
+      </c>
+      <c r="D65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>257</v>
+      </c>
+      <c r="G65" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1284894037</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>489889998</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>269943576</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1135079831</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>426348191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" t="s">
+        <v>278</v>
+      </c>
+      <c r="F70" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5697423569</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
+      <c r="G71" t="s">
+        <v>285</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>985881854</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>288</v>
+      </c>
+      <c r="G72" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1062693075</v>
+      </c>
+      <c r="D73" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" t="s">
+        <v>293</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5696123662</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+      <c r="F74" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
+        <v>297</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>864413115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" t="s">
+        <v>300</v>
+      </c>
+      <c r="G75" t="s">
+        <v>301</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>777204472</v>
+      </c>
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" t="s">
+        <v>304</v>
+      </c>
+      <c r="F76" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" t="s">
+        <v>306</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5933371543</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77" t="s">
+        <v>311</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1304756410</v>
+      </c>
+      <c r="C78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" t="s">
+        <v>316</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>820625444</v>
+      </c>
+      <c r="D79" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" t="s">
+        <v>318</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>319</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>571016821</v>
+      </c>
+      <c r="D80" t="s">
+        <v>320</v>
+      </c>
+      <c r="E80" t="s">
+        <v>321</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>322</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1013956146</v>
+      </c>
+      <c r="C81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1013956146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7913035229</v>
+      </c>
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" t="s">
+        <v>329</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5072356459</v>
+      </c>
+      <c r="C84" t="s">
+        <v>331</v>
+      </c>
+      <c r="D84" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>334</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6152084784</v>
+      </c>
+      <c r="D85" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>337</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1624531159</v>
+      </c>
+      <c r="D86" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>340</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1149301626</v>
+      </c>
+      <c r="D87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>343</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1149301626</v>
+      </c>
+      <c r="D88" t="s">
+        <v>344</v>
+      </c>
+      <c r="E88" t="s">
+        <v>342</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5988958450</v>
+      </c>
+      <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" t="s">
+        <v>347</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>348</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7031372588</v>
+      </c>
+      <c r="D90" t="s">
+        <v>349</v>
+      </c>
+      <c r="E90" t="s">
+        <v>350</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s">
+        <v>351</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5195695096</v>
+      </c>
+      <c r="D91" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" t="s">
+        <v>353</v>
+      </c>
+      <c r="F91" t="s">
+        <v>354</v>
+      </c>
+      <c r="G91" t="s">
+        <v>355</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1166686089</v>
+      </c>
+      <c r="D92" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" t="s">
+        <v>357</v>
+      </c>
+      <c r="F92" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" t="s">
+        <v>358</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7825725923</v>
+      </c>
+      <c r="D93" t="s">
+        <v>359</v>
+      </c>
+      <c r="E93" t="s">
+        <v>360</v>
+      </c>
+      <c r="F93" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1015289754</v>
+      </c>
+      <c r="D94" t="s">
+        <v>363</v>
+      </c>
+      <c r="E94" t="s">
+        <v>364</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>365</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7825725923</v>
+      </c>
+      <c r="D95" t="s">
+        <v>366</v>
+      </c>
+      <c r="E95" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" t="s">
+        <v>368</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7825725923</v>
+      </c>
+      <c r="D96" t="s">
+        <v>366</v>
+      </c>
+      <c r="E96" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" t="s">
+        <v>369</v>
+      </c>
+      <c r="G96" t="s">
+        <v>370</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5725262282</v>
+      </c>
+      <c r="D97" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" t="s">
+        <v>372</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
+        <v>373</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>439979846</v>
+      </c>
+      <c r="D98" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" t="s">
+        <v>377</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5017353410</v>
+      </c>
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" t="s">
+        <v>380</v>
+      </c>
+      <c r="G99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1754438421</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>382</v>
+      </c>
+      <c r="E100" t="s">
+        <v>383</v>
+      </c>
+      <c r="F100" t="s">
+        <v>384</v>
+      </c>
+      <c r="G100" t="s">
+        <v>385</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1754438421</v>
+      </c>
+      <c r="C101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>387</v>
+      </c>
+      <c r="F101" t="s">
+        <v>384</v>
+      </c>
+      <c r="G101" t="s">
+        <v>388</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>528317362</v>
+      </c>
+      <c r="C102" t="s">
+        <v>389</v>
+      </c>
+      <c r="D102" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" t="s">
+        <v>391</v>
+      </c>
+      <c r="F102" t="s">
+        <v>392</v>
+      </c>
+      <c r="G102" t="s">
+        <v>393</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>528317362</v>
+      </c>
+      <c r="C103" t="s">
+        <v>389</v>
+      </c>
+      <c r="D103" t="s">
+        <v>394</v>
+      </c>
+      <c r="E103" t="s">
+        <v>391</v>
+      </c>
+      <c r="F103" t="s">
+        <v>395</v>
+      </c>
+      <c r="G103" t="s">
+        <v>396</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7504184378</v>
+      </c>
+      <c r="D104" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" t="s">
+        <v>400</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1953766516</v>
+      </c>
+      <c r="D105" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" t="s">
+        <v>402</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s">
+        <v>403</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>5482054032</v>
+      </c>
+      <c r="C106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" t="s">
+        <v>405</v>
+      </c>
+      <c r="E106" t="s">
+        <v>406</v>
+      </c>
+      <c r="F106" t="s">
+        <v>407</v>
+      </c>
+      <c r="G106" t="s">
+        <v>408</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>6561152974</v>
+      </c>
+      <c r="D107" t="s">
+        <v>409</v>
+      </c>
+      <c r="E107" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107" t="s">
+        <v>411</v>
+      </c>
+      <c r="G107" t="s">
+        <v>412</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7221371116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>413</v>
+      </c>
+      <c r="E108" t="s">
+        <v>414</v>
+      </c>
+      <c r="F108" t="s">
+        <v>415</v>
+      </c>
+      <c r="G108" t="s">
+        <v>416</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>670277966</v>
+      </c>
+      <c r="D109" t="s">
+        <v>417</v>
+      </c>
+      <c r="E109" t="s">
+        <v>418</v>
+      </c>
+      <c r="F109" t="s">
+        <v>419</v>
+      </c>
+      <c r="G109" t="s">
+        <v>420</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7958567550</v>
+      </c>
+      <c r="D110" t="s">
+        <v>421</v>
+      </c>
+      <c r="E110" t="s">
+        <v>422</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" t="s">
+        <v>423</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7427064251</v>
+      </c>
+      <c r="D111" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" t="s">
+        <v>425</v>
+      </c>
+      <c r="F111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
+        <v>426</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2100108572</v>
+      </c>
+      <c r="D112" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>429</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7210093526</v>
+      </c>
+      <c r="D113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" t="s">
+        <v>431</v>
+      </c>
+      <c r="F113" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" t="s">
+        <v>432</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>767537039</v>
+      </c>
+      <c r="C114" t="s">
+        <v>433</v>
+      </c>
+      <c r="D114" t="s">
+        <v>434</v>
+      </c>
+      <c r="E114" t="s">
+        <v>435</v>
+      </c>
+      <c r="F114" t="s">
+        <v>436</v>
+      </c>
+      <c r="G114" t="s">
+        <v>437</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1206590291</v>
+      </c>
+      <c r="D115" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" t="s">
+        <v>439</v>
+      </c>
+      <c r="F115" t="s">
+        <v>223</v>
+      </c>
+      <c r="G115" t="s">
+        <v>440</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>670417622</v>
+      </c>
+      <c r="D116" t="s">
+        <v>441</v>
+      </c>
+      <c r="E116" t="s">
+        <v>442</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>443</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1215637889</v>
+      </c>
+      <c r="D117" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" t="s">
+        <v>445</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s">
+        <v>446</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1215637889</v>
+      </c>
+      <c r="D118" t="s">
+        <v>444</v>
+      </c>
+      <c r="E118" t="s">
+        <v>445</v>
+      </c>
+      <c r="F118" t="s">
+        <v>206</v>
+      </c>
+      <c r="G118" t="s">
+        <v>447</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>959367602</v>
+      </c>
+      <c r="D119" t="s">
+        <v>448</v>
+      </c>
+      <c r="E119" t="s">
+        <v>449</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>450</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>795536276</v>
+      </c>
+      <c r="C120" t="s">
+        <v>451</v>
+      </c>
+      <c r="D120" t="s">
+        <v>452</v>
+      </c>
+      <c r="E120" t="s">
+        <v>453</v>
+      </c>
+      <c r="F120" t="s">
+        <v>454</v>
+      </c>
+      <c r="G120" t="s">
+        <v>455</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1176480271</v>
+      </c>
+      <c r="D121" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" t="s">
+        <v>457</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s">
+        <v>458</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1514232874</v>
+      </c>
+      <c r="D122" t="s">
+        <v>459</v>
+      </c>
+      <c r="E122" t="s">
+        <v>460</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s">
+        <v>461</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>426348191</v>
+      </c>
+      <c r="C123" t="s">
+        <v>276</v>
+      </c>
+      <c r="D123" t="s">
+        <v>462</v>
+      </c>
+      <c r="E123" t="s">
+        <v>278</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" t="s">
+        <v>463</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7659724672</v>
+      </c>
+      <c r="D124" t="s">
+        <v>464</v>
+      </c>
+      <c r="E124" t="s">
+        <v>256</v>
+      </c>
+      <c r="F124" t="s">
+        <v>465</v>
+      </c>
+      <c r="G124" t="s">
+        <v>466</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>880267359</v>
+      </c>
+      <c r="D125" t="s">
+        <v>467</v>
+      </c>
+      <c r="E125" t="s">
+        <v>468</v>
+      </c>
+      <c r="F125" t="s">
+        <v>469</v>
+      </c>
+      <c r="G125" t="s">
+        <v>470</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>904912697</v>
+      </c>
+      <c r="D126" t="s">
+        <v>471</v>
+      </c>
+      <c r="E126" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" t="s">
+        <v>473</v>
+      </c>
+      <c r="G126" t="s">
+        <v>474</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>470032393</v>
+      </c>
+      <c r="C127" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" t="s">
+        <v>476</v>
+      </c>
+      <c r="E127" t="s">
+        <v>477</v>
+      </c>
+      <c r="F127" t="s">
+        <v>478</v>
+      </c>
+      <c r="G127" t="s">
+        <v>479</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>470032393</v>
+      </c>
+      <c r="C128" t="s">
+        <v>475</v>
+      </c>
+      <c r="D128" t="s">
+        <v>480</v>
+      </c>
+      <c r="E128" t="s">
+        <v>477</v>
+      </c>
+      <c r="F128" t="s">
+        <v>478</v>
+      </c>
+      <c r="G128" t="s">
+        <v>481</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>470032393</v>
+      </c>
+      <c r="C129" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" t="s">
+        <v>480</v>
+      </c>
+      <c r="E129" t="s">
+        <v>477</v>
+      </c>
+      <c r="F129" t="s">
+        <v>206</v>
+      </c>
+      <c r="G129" t="s">
+        <v>482</v>
+      </c>
+      <c r="H129" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>470032393</v>
+      </c>
+      <c r="C130" t="s">
+        <v>475</v>
+      </c>
+      <c r="D130" t="s">
+        <v>476</v>
+      </c>
+      <c r="E130" t="s">
+        <v>477</v>
+      </c>
+      <c r="F130" t="s">
+        <v>478</v>
+      </c>
+      <c r="G130" t="s">
+        <v>483</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1260613044</v>
+      </c>
+      <c r="D131" t="s">
+        <v>484</v>
+      </c>
+      <c r="E131" t="s">
+        <v>485</v>
+      </c>
+      <c r="F131" t="s">
+        <v>486</v>
+      </c>
+      <c r="G131" t="s">
+        <v>487</v>
+      </c>
+      <c r="H131" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>470032393</v>
+      </c>
+      <c r="C132" t="s">
+        <v>475</v>
+      </c>
+      <c r="D132" t="s">
+        <v>476</v>
+      </c>
+      <c r="E132" t="s">
+        <v>477</v>
+      </c>
+      <c r="F132" t="s">
+        <v>478</v>
+      </c>
+      <c r="G132" t="s">
+        <v>488</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>470032393</v>
+      </c>
+      <c r="C133" t="s">
+        <v>475</v>
+      </c>
+      <c r="D133" t="s">
+        <v>476</v>
+      </c>
+      <c r="E133" t="s">
+        <v>477</v>
+      </c>
+      <c r="F133" t="s">
+        <v>478</v>
+      </c>
+      <c r="G133" t="s">
+        <v>489</v>
+      </c>
+      <c r="H133" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>470032393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>475</v>
+      </c>
+      <c r="D134" t="s">
+        <v>476</v>
+      </c>
+      <c r="E134" t="s">
+        <v>477</v>
+      </c>
+      <c r="F134" t="s">
+        <v>478</v>
+      </c>
+      <c r="G134" t="s">
+        <v>490</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>470032393</v>
+      </c>
+      <c r="C135" t="s">
+        <v>475</v>
+      </c>
+      <c r="D135" t="s">
+        <v>476</v>
+      </c>
+      <c r="E135" t="s">
+        <v>477</v>
+      </c>
+      <c r="F135" t="s">
+        <v>206</v>
+      </c>
+      <c r="G135" t="s">
+        <v>491</v>
+      </c>
+      <c r="H135" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>670417622</v>
+      </c>
+      <c r="D136" t="s">
+        <v>492</v>
+      </c>
+      <c r="E136" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" t="s">
+        <v>493</v>
+      </c>
+      <c r="G136" t="s">
+        <v>494</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5933371543</v>
+      </c>
+      <c r="C137" t="s">
+        <v>307</v>
+      </c>
+      <c r="D137" t="s">
+        <v>308</v>
+      </c>
+      <c r="E137" t="s">
+        <v>309</v>
+      </c>
+      <c r="F137" t="s">
+        <v>310</v>
+      </c>
+      <c r="G137" t="s">
+        <v>495</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5933371543</v>
+      </c>
+      <c r="C138" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" t="s">
+        <v>308</v>
+      </c>
+      <c r="E138" t="s">
+        <v>309</v>
+      </c>
+      <c r="F138" t="s">
+        <v>206</v>
+      </c>
+      <c r="G138" t="s">
+        <v>496</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>6377616570</v>
+      </c>
+      <c r="C139" t="s">
+        <v>497</v>
+      </c>
+      <c r="D139" t="s">
+        <v>498</v>
+      </c>
+      <c r="E139" t="s">
+        <v>499</v>
+      </c>
+      <c r="F139" t="s">
+        <v>500</v>
+      </c>
+      <c r="G139" t="s">
+        <v>501</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1060846443</v>
+      </c>
+      <c r="D140" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" t="s">
+        <v>503</v>
+      </c>
+      <c r="F140" t="s">
+        <v>504</v>
+      </c>
+      <c r="G140" t="s">
+        <v>505</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1164888720</v>
+      </c>
+      <c r="D141" t="s">
+        <v>506</v>
+      </c>
+      <c r="E141" t="s">
+        <v>507</v>
+      </c>
+      <c r="F141" t="s">
+        <v>508</v>
+      </c>
+      <c r="G141" t="s">
+        <v>509</v>
+      </c>
+      <c r="H141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7498443203</v>
+      </c>
+      <c r="D142" t="s">
+        <v>510</v>
+      </c>
+      <c r="E142" t="s">
+        <v>511</v>
+      </c>
+      <c r="F142" t="s">
+        <v>512</v>
+      </c>
+      <c r="G142" t="s">
+        <v>513</v>
+      </c>
+      <c r="H142" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7165366850</v>
+      </c>
+      <c r="C143" t="s">
+        <v>514</v>
+      </c>
+      <c r="D143" t="s">
+        <v>515</v>
+      </c>
+      <c r="E143" t="s">
+        <v>516</v>
+      </c>
+      <c r="F143" t="s">
+        <v>517</v>
+      </c>
+      <c r="G143" t="s">
+        <v>518</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>349327013</v>
+      </c>
+      <c r="C144" t="s">
+        <v>519</v>
+      </c>
+      <c r="D144" t="s">
+        <v>520</v>
+      </c>
+      <c r="E144" t="s">
+        <v>521</v>
+      </c>
+      <c r="F144" t="s">
+        <v>42</v>
+      </c>
+      <c r="G144" t="s">
+        <v>522</v>
+      </c>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2099856694</v>
+      </c>
+      <c r="C145" t="s">
+        <v>523</v>
+      </c>
+      <c r="D145" t="s">
+        <v>524</v>
+      </c>
+      <c r="E145" t="s">
+        <v>525</v>
+      </c>
+      <c r="F145" t="s">
+        <v>526</v>
+      </c>
+      <c r="G145" t="s">
+        <v>527</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6224190698</v>
+      </c>
+      <c r="D146" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" t="s">
+        <v>106</v>
+      </c>
+      <c r="F146" t="s">
+        <v>107</v>
+      </c>
+      <c r="G146" t="s">
+        <v>528</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1059623506</v>
+      </c>
+      <c r="D147" t="s">
+        <v>529</v>
+      </c>
+      <c r="E147" t="s">
+        <v>530</v>
+      </c>
+      <c r="F147" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>531</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1059623506</v>
+      </c>
+      <c r="D148" t="s">
+        <v>529</v>
+      </c>
+      <c r="E148" t="s">
+        <v>530</v>
+      </c>
+      <c r="F148" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" t="s">
+        <v>532</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>582423529</v>
+      </c>
+      <c r="D149" t="s">
+        <v>533</v>
+      </c>
+      <c r="E149" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" t="s">
+        <v>223</v>
+      </c>
+      <c r="G149" t="s">
+        <v>535</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>983756358</v>
+      </c>
+      <c r="C150" t="s">
+        <v>536</v>
+      </c>
+      <c r="D150" t="s">
+        <v>537</v>
+      </c>
+      <c r="E150" t="s">
+        <v>538</v>
+      </c>
+      <c r="F150" t="s">
+        <v>539</v>
+      </c>
+      <c r="G150" t="s">
+        <v>540</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>828739441</v>
+      </c>
+      <c r="D151" t="s">
+        <v>541</v>
+      </c>
+      <c r="E151" t="s">
+        <v>542</v>
+      </c>
+      <c r="F151" t="s">
+        <v>543</v>
+      </c>
+      <c r="G151" t="s">
+        <v>544</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>828739441</v>
+      </c>
+      <c r="D152" t="s">
+        <v>541</v>
+      </c>
+      <c r="E152" t="s">
+        <v>542</v>
+      </c>
+      <c r="F152" t="s">
+        <v>543</v>
+      </c>
+      <c r="G152" t="s">
+        <v>545</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>828739441</v>
+      </c>
+      <c r="D153" t="s">
+        <v>541</v>
+      </c>
+      <c r="E153" t="s">
+        <v>542</v>
+      </c>
+      <c r="F153" t="s">
+        <v>206</v>
+      </c>
+      <c r="G153" t="s">
+        <v>546</v>
+      </c>
+      <c r="H153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1146802619</v>
+      </c>
+      <c r="D154" t="s">
+        <v>547</v>
+      </c>
+      <c r="E154" t="s">
+        <v>548</v>
+      </c>
+      <c r="F154" t="s">
+        <v>549</v>
+      </c>
+      <c r="G154" t="s">
+        <v>550</v>
+      </c>
+      <c r="H154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>419418178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" t="s">
+        <v>552</v>
+      </c>
+      <c r="E155" t="s">
+        <v>553</v>
+      </c>
+      <c r="F155" t="s">
+        <v>554</v>
+      </c>
+      <c r="G155" t="s">
+        <v>555</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1172448544</v>
+      </c>
+      <c r="D156" t="s">
+        <v>556</v>
+      </c>
+      <c r="E156" t="s">
+        <v>557</v>
+      </c>
+      <c r="F156" t="s">
+        <v>558</v>
+      </c>
+      <c r="G156" t="s">
+        <v>559</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1296225668</v>
+      </c>
+      <c r="C157" t="s">
+        <v>560</v>
+      </c>
+      <c r="D157" t="s">
+        <v>561</v>
+      </c>
+      <c r="E157" t="s">
+        <v>562</v>
+      </c>
+      <c r="F157" t="s">
+        <v>563</v>
+      </c>
+      <c r="G157" t="s">
+        <v>564</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6435873990</v>
+      </c>
+      <c r="D158" t="s">
+        <v>565</v>
+      </c>
+      <c r="E158" t="s">
+        <v>566</v>
+      </c>
+      <c r="F158" t="s">
+        <v>567</v>
+      </c>
+      <c r="G158" t="s">
+        <v>568</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6435873990</v>
+      </c>
+      <c r="D159" t="s">
+        <v>565</v>
+      </c>
+      <c r="E159" t="s">
+        <v>566</v>
+      </c>
+      <c r="F159" t="s">
+        <v>569</v>
+      </c>
+      <c r="G159" t="s">
+        <v>570</v>
+      </c>
+      <c r="H159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6435873990</v>
+      </c>
+      <c r="D160" t="s">
+        <v>565</v>
+      </c>
+      <c r="E160" t="s">
+        <v>566</v>
+      </c>
+      <c r="F160" t="s">
+        <v>206</v>
+      </c>
+      <c r="G160" t="s">
+        <v>571</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>180240709</v>
+      </c>
+      <c r="C161" t="s">
+        <v>572</v>
+      </c>
+      <c r="D161" t="s">
+        <v>573</v>
+      </c>
+      <c r="E161" t="s">
+        <v>574</v>
+      </c>
+      <c r="F161" t="s">
+        <v>575</v>
+      </c>
+      <c r="G161" t="s">
+        <v>576</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1514232874</v>
+      </c>
+      <c r="D162" t="s">
+        <v>459</v>
+      </c>
+      <c r="E162" t="s">
+        <v>460</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="s">
+        <v>577</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>890673704</v>
+      </c>
+      <c r="D163" t="s">
+        <v>578</v>
+      </c>
+      <c r="E163" t="s">
+        <v>579</v>
+      </c>
+      <c r="F163" t="s">
+        <v>580</v>
+      </c>
+      <c r="G163" t="s">
+        <v>581</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>306377645</v>
+      </c>
+      <c r="D164" t="s">
+        <v>582</v>
+      </c>
+      <c r="E164" t="s">
+        <v>583</v>
+      </c>
+      <c r="F164" t="s">
+        <v>42</v>
+      </c>
+      <c r="G164" t="s">
+        <v>584</v>
+      </c>
+      <c r="H164" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>306377645</v>
+      </c>
+      <c r="D165" t="s">
+        <v>585</v>
+      </c>
+      <c r="E165" t="s">
+        <v>583</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>586</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2115074432</v>
+      </c>
+      <c r="C166" t="s">
+        <v>587</v>
+      </c>
+      <c r="D166" t="s">
+        <v>588</v>
+      </c>
+      <c r="E166" t="s">
+        <v>589</v>
+      </c>
+      <c r="F166" t="s">
+        <v>42</v>
+      </c>
+      <c r="G166" t="s">
+        <v>590</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2128384652</v>
+      </c>
+      <c r="D167" t="s">
+        <v>591</v>
+      </c>
+      <c r="E167" t="s">
+        <v>592</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" t="s">
+        <v>593</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>977766122</v>
+      </c>
+      <c r="D168" t="s">
+        <v>594</v>
+      </c>
+      <c r="E168" t="s">
+        <v>595</v>
+      </c>
+      <c r="F168" t="s">
+        <v>596</v>
+      </c>
+      <c r="G168" t="s">
+        <v>597</v>
+      </c>
+      <c r="H168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5893559819</v>
+      </c>
+      <c r="D169" t="s">
+        <v>598</v>
+      </c>
+      <c r="E169" t="s">
+        <v>599</v>
+      </c>
+      <c r="F169" t="s">
+        <v>600</v>
+      </c>
+      <c r="G169" t="s">
+        <v>601</v>
+      </c>
+      <c r="H169" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>737340521</v>
+      </c>
+      <c r="C170" t="s">
+        <v>602</v>
+      </c>
+      <c r="D170" t="s">
+        <v>603</v>
+      </c>
+      <c r="E170" t="s">
+        <v>604</v>
+      </c>
+      <c r="F170" t="s">
+        <v>605</v>
+      </c>
+      <c r="G170" t="s">
+        <v>606</v>
+      </c>
+      <c r="H170" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2129829759</v>
+      </c>
+      <c r="D171" t="s">
+        <v>607</v>
+      </c>
+      <c r="E171" t="s">
+        <v>608</v>
+      </c>
+      <c r="F171" t="s">
+        <v>609</v>
+      </c>
+      <c r="G171" t="s">
+        <v>610</v>
+      </c>
+      <c r="H171" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>222462586</v>
+      </c>
+      <c r="C172" t="s">
+        <v>611</v>
+      </c>
+      <c r="D172" t="s">
+        <v>612</v>
+      </c>
+      <c r="E172" t="s">
+        <v>613</v>
+      </c>
+      <c r="F172" t="s">
+        <v>614</v>
+      </c>
+      <c r="G172" t="s">
+        <v>615</v>
+      </c>
+      <c r="H172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>369101924</v>
+      </c>
+      <c r="C173" t="s">
+        <v>616</v>
+      </c>
+      <c r="D173" t="s">
+        <v>617</v>
+      </c>
+      <c r="E173" t="s">
+        <v>618</v>
+      </c>
+      <c r="F173" t="s">
+        <v>619</v>
+      </c>
+      <c r="G173" t="s">
+        <v>620</v>
+      </c>
+      <c r="H173" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1080058817</v>
+      </c>
+      <c r="D174" t="s">
+        <v>621</v>
+      </c>
+      <c r="E174" t="s">
+        <v>622</v>
+      </c>
+      <c r="F174" t="s">
+        <v>623</v>
+      </c>
+      <c r="G174" t="s">
+        <v>624</v>
+      </c>
+      <c r="H174" t="s">
+        <v>11</v>
+      </c>
+      <c r="I174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7426205997</v>
+      </c>
+      <c r="D175" t="s">
+        <v>625</v>
+      </c>
+      <c r="E175" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" t="s">
+        <v>626</v>
+      </c>
+      <c r="G175" t="s">
+        <v>627</v>
+      </c>
+      <c r="H175" t="s">
+        <v>11</v>
+      </c>
+      <c r="I175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>661321121</v>
+      </c>
+      <c r="D176" t="s">
+        <v>628</v>
+      </c>
+      <c r="E176" t="s">
+        <v>629</v>
+      </c>
+      <c r="F176" t="s">
+        <v>630</v>
+      </c>
+      <c r="G176" t="s">
+        <v>631</v>
+      </c>
+      <c r="H176" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6223925443</v>
+      </c>
+      <c r="D177" t="s">
+        <v>632</v>
+      </c>
+      <c r="E177" t="s">
+        <v>633</v>
+      </c>
+      <c r="F177" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" t="s">
+        <v>634</v>
+      </c>
+      <c r="H177" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1080058817</v>
+      </c>
+      <c r="D178" t="s">
+        <v>621</v>
+      </c>
+      <c r="E178" t="s">
+        <v>622</v>
+      </c>
+      <c r="F178" t="s">
+        <v>623</v>
+      </c>
+      <c r="G178" t="s">
+        <v>635</v>
+      </c>
+      <c r="H178" t="s">
+        <v>11</v>
+      </c>
+      <c r="I178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5436636383</v>
+      </c>
+      <c r="D179" t="s">
+        <v>636</v>
+      </c>
+      <c r="E179" t="s">
+        <v>637</v>
+      </c>
+      <c r="F179" t="s">
+        <v>638</v>
+      </c>
+      <c r="G179" t="s">
+        <v>639</v>
+      </c>
+      <c r="H179" t="s">
+        <v>11</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1235892882</v>
+      </c>
+      <c r="C180" t="s">
+        <v>640</v>
+      </c>
+      <c r="D180" t="s">
+        <v>641</v>
+      </c>
+      <c r="E180" t="s">
+        <v>642</v>
+      </c>
+      <c r="F180" t="s">
+        <v>643</v>
+      </c>
+      <c r="G180" t="s">
+        <v>644</v>
+      </c>
+      <c r="H180" t="s">
+        <v>11</v>
+      </c>
+      <c r="I180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1235892882</v>
+      </c>
+      <c r="C181" t="s">
+        <v>640</v>
+      </c>
+      <c r="D181" t="s">
+        <v>641</v>
+      </c>
+      <c r="E181" t="s">
+        <v>642</v>
+      </c>
+      <c r="F181" t="s">
+        <v>645</v>
+      </c>
+      <c r="G181" t="s">
+        <v>646</v>
+      </c>
+      <c r="H181" t="s">
+        <v>11</v>
+      </c>
+      <c r="I181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>671311250</v>
+      </c>
+      <c r="D182" t="s">
+        <v>647</v>
+      </c>
+      <c r="E182" t="s">
+        <v>648</v>
+      </c>
+      <c r="F182" t="s">
+        <v>649</v>
+      </c>
+      <c r="G182" t="s">
+        <v>650</v>
+      </c>
+      <c r="H182" t="s">
+        <v>11</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5681068872</v>
+      </c>
+      <c r="D183" t="s">
+        <v>651</v>
+      </c>
+      <c r="E183" t="s">
+        <v>652</v>
+      </c>
+      <c r="F183" t="s">
+        <v>653</v>
+      </c>
+      <c r="G183" t="s">
+        <v>654</v>
+      </c>
+      <c r="H183" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7739442236</v>
+      </c>
+      <c r="D184" t="s">
+        <v>655</v>
+      </c>
+      <c r="E184" t="s">
+        <v>656</v>
+      </c>
+      <c r="F184" t="s">
+        <v>638</v>
+      </c>
+      <c r="G184" t="s">
+        <v>657</v>
+      </c>
+      <c r="H184" t="s">
+        <v>11</v>
+      </c>
+      <c r="I184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1978186278</v>
+      </c>
+      <c r="D185" t="s">
+        <v>658</v>
+      </c>
+      <c r="E185" t="s">
+        <v>659</v>
+      </c>
+      <c r="F185" t="s">
+        <v>660</v>
+      </c>
+      <c r="G185" t="s">
+        <v>661</v>
+      </c>
+      <c r="H185" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>852635207</v>
+      </c>
+      <c r="D186" t="s">
+        <v>662</v>
+      </c>
+      <c r="E186" t="s">
+        <v>663</v>
+      </c>
+      <c r="F186" t="s">
+        <v>638</v>
+      </c>
+      <c r="G186" t="s">
+        <v>664</v>
+      </c>
+      <c r="H186" t="s">
+        <v>11</v>
+      </c>
+      <c r="I186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5401482129</v>
+      </c>
+      <c r="D187" t="s">
+        <v>665</v>
+      </c>
+      <c r="E187" t="s">
+        <v>666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>638</v>
+      </c>
+      <c r="G187" t="s">
+        <v>667</v>
+      </c>
+      <c r="H187" t="s">
+        <v>11</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>995822038</v>
+      </c>
+      <c r="D188" t="s">
+        <v>668</v>
+      </c>
+      <c r="E188" t="s">
+        <v>669</v>
+      </c>
+      <c r="F188" t="s">
+        <v>638</v>
+      </c>
+      <c r="G188" t="s">
+        <v>670</v>
+      </c>
+      <c r="H188" t="s">
+        <v>11</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1005851151</v>
+      </c>
+      <c r="D189" t="s">
+        <v>671</v>
+      </c>
+      <c r="E189" t="s">
+        <v>672</v>
+      </c>
+      <c r="F189" t="s">
+        <v>673</v>
+      </c>
+      <c r="G189" t="s">
+        <v>674</v>
+      </c>
+      <c r="H189" t="s">
+        <v>11</v>
+      </c>
+      <c r="I189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1495315889</v>
+      </c>
+      <c r="C190" t="s">
+        <v>675</v>
+      </c>
+      <c r="D190" t="s">
+        <v>676</v>
+      </c>
+      <c r="E190" t="s">
+        <v>677</v>
+      </c>
+      <c r="F190" t="s">
+        <v>678</v>
+      </c>
+      <c r="G190" t="s">
+        <v>679</v>
+      </c>
+      <c r="H190" t="s">
+        <v>11</v>
+      </c>
+      <c r="I190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>827791078</v>
+      </c>
+      <c r="D191" t="s">
+        <v>680</v>
+      </c>
+      <c r="E191" t="s">
+        <v>681</v>
+      </c>
+      <c r="F191" t="s">
+        <v>638</v>
+      </c>
+      <c r="G191" t="s">
+        <v>682</v>
+      </c>
+      <c r="H191" t="s">
+        <v>11</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1104600053</v>
+      </c>
+      <c r="D192" t="s">
+        <v>683</v>
+      </c>
+      <c r="E192" t="s">
+        <v>684</v>
+      </c>
+      <c r="F192" t="s">
+        <v>638</v>
+      </c>
+      <c r="G192" t="s">
+        <v>685</v>
+      </c>
+      <c r="H192" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>689943831</v>
+      </c>
+      <c r="C193" t="s">
+        <v>686</v>
+      </c>
+      <c r="D193" t="s">
+        <v>687</v>
+      </c>
+      <c r="E193" t="s">
+        <v>688</v>
+      </c>
+      <c r="F193" t="s">
+        <v>689</v>
+      </c>
+      <c r="G193" t="s">
+        <v>690</v>
+      </c>
+      <c r="H193" t="s">
+        <v>11</v>
+      </c>
+      <c r="I193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7813845400</v>
+      </c>
+      <c r="D194" t="s">
+        <v>691</v>
+      </c>
+      <c r="E194" t="s">
+        <v>692</v>
+      </c>
+      <c r="F194" t="s">
+        <v>693</v>
+      </c>
+      <c r="G194" t="s">
+        <v>694</v>
+      </c>
+      <c r="H194" t="s">
+        <v>11</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>592837262</v>
+      </c>
+      <c r="C195" t="s">
+        <v>695</v>
+      </c>
+      <c r="D195" t="s">
+        <v>696</v>
+      </c>
+      <c r="E195" t="s">
+        <v>697</v>
+      </c>
+      <c r="F195" t="s">
+        <v>698</v>
+      </c>
+      <c r="G195" t="s">
+        <v>699</v>
+      </c>
+      <c r="H195" t="s">
+        <v>11</v>
+      </c>
+      <c r="I195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>640992388</v>
+      </c>
+      <c r="D196" t="s">
+        <v>700</v>
+      </c>
+      <c r="E196" t="s">
+        <v>701</v>
+      </c>
+      <c r="F196" t="s">
+        <v>702</v>
+      </c>
+      <c r="G196" t="s">
+        <v>703</v>
+      </c>
+      <c r="H196" t="s">
+        <v>11</v>
+      </c>
+      <c r="I196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1666021120</v>
+      </c>
+      <c r="C197" t="s">
+        <v>704</v>
+      </c>
+      <c r="D197" t="s">
+        <v>705</v>
+      </c>
+      <c r="E197" t="s">
+        <v>706</v>
+      </c>
+      <c r="F197" t="s">
+        <v>707</v>
+      </c>
+      <c r="G197" t="s">
+        <v>708</v>
+      </c>
+      <c r="H197" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2091675712</v>
+      </c>
+      <c r="D198" t="s">
+        <v>709</v>
+      </c>
+      <c r="E198" t="s">
+        <v>710</v>
+      </c>
+      <c r="F198" t="s">
+        <v>711</v>
+      </c>
+      <c r="G198" t="s">
+        <v>712</v>
+      </c>
+      <c r="H198" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>648479884</v>
+      </c>
+      <c r="D199" t="s">
+        <v>713</v>
+      </c>
+      <c r="E199" t="s">
+        <v>145</v>
+      </c>
+      <c r="F199" t="s">
+        <v>714</v>
+      </c>
+      <c r="G199" t="s">
+        <v>715</v>
+      </c>
+      <c r="H199" t="s">
+        <v>11</v>
+      </c>
+      <c r="I199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>8136308795</v>
+      </c>
+      <c r="D200" t="s">
+        <v>716</v>
+      </c>
+      <c r="E200" t="s">
+        <v>717</v>
+      </c>
+      <c r="F200" t="s">
+        <v>718</v>
+      </c>
+      <c r="G200" t="s">
+        <v>719</v>
+      </c>
+      <c r="H200" t="s">
+        <v>11</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>578207338</v>
+      </c>
+      <c r="D201" t="s">
+        <v>720</v>
+      </c>
+      <c r="E201" t="s">
+        <v>721</v>
+      </c>
+      <c r="F201" t="s">
+        <v>722</v>
+      </c>
+      <c r="G201" t="s">
+        <v>723</v>
+      </c>
+      <c r="H201" t="s">
+        <v>11</v>
+      </c>
+      <c r="I201" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
